--- a/html/resources/ioaConditions/train1P2Block3.xlsx
+++ b/html/resources/ioaConditions/train1P2Block3.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/08_tipako1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
   </si>
   <si>
-    <t>pngimages/05_megaphone.png</t>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/ioaConditions/train1P2Block3.xlsx
+++ b/html/resources/ioaConditions/train1P2Block3.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
+    <t>trainingaudio/08_tipako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.mp3</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>

--- a/html/resources/ioaConditions/train1P2Block3.xlsx
+++ b/html/resources/ioaConditions/train1P2Block3.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.mp3</t>
+    <t>trainingaudio/08_tipako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.ogg</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>

--- a/html/resources/ioaConditions/train1P2Block3.xlsx
+++ b/html/resources/ioaConditions/train1P2Block3.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/08_tipako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.ogg</t>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
